--- a/medicine/Enfance/Claire_Mazard/Claire_Mazard.xlsx
+++ b/medicine/Enfance/Claire_Mazard/Claire_Mazard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Mazard est une écrivaine française née le 6 novembre 1957 à Montpellier. Spécialisée dans la littérature jeunesse depuis 2007, elle a pour thème de prédilection les droits de l'enfant.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Mazard est une autrice de littérature pour la jeunesse. Elle est née le 6 novembre 1957 à Montpellier[1],[2]. 
-Elle a publié une cinquantaine de récits, pour enfants et pour adolescents, aux éditions Syros, Casterman, Nathan, Bayard, Le Seuil, Flammarion, De La Martinière. Dans beaucoup de ses livres, elle aborde le thème des droits des enfants[3]. Elle a aussi écrit des récits d’aventures et des policiers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Mazard est une autrice de littérature pour la jeunesse. Elle est née le 6 novembre 1957 à Montpellier,. 
+Elle a publié une cinquantaine de récits, pour enfants et pour adolescents, aux éditions Syros, Casterman, Nathan, Bayard, Le Seuil, Flammarion, De La Martinière. Dans beaucoup de ses livres, elle aborde le thème des droits des enfants. Elle a aussi écrit des récits d’aventures et des policiers.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les compagnons de la lune rouge Je redessinerai le ciel bleu dans tes yeux (1990) - Réédition en 2014, Oskar Jeunesse.
 Opération Marcellin (1994) - Réédition en 2013, Oskar Jeunesse.
@@ -553,7 +569,7 @@
 Rue des vautours (2000)
 Le Cahier rouge (2000)
 Maman les p’tit bateaux (1999 )
-L.O.L.A (2000), prix « Livre, mon ami » 2001[4]
+L.O.L.A (2000), prix « Livre, mon ami » 2001
 Macaron citron (2001)
 Des mouettes pleins la tête (2001)
 L’Absente (2002), prix Jeunesse France Télévision 2003
